--- a/01/2. 기본 자료구조와 배열.xlsx
+++ b/01/2. 기본 자료구조와 배열.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minseo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minseo/data_structure/01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2709C8A-EBB9-8747-9A41-850E176FEF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9554DB65-246E-D543-9F21-DF58044539CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="역순 만들기" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>i = 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,33 @@
   </si>
   <si>
     <t>1부터 끝까지-초급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>''
+data.reverse() 구현
+'''
+data = [i for i in range(1,7)]
+howmany = len(data)
+for i in range(howmany):
+    data[i], data[howmany-i] = data[howmany-i], data[i]
+print(data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>''
+주어진 범위만 뒤집기
+추천 문제 : 백준 10811 바구니 뒤집기
+'''
+data = [i for i in range(1, 7)]
+# 범위 지정
+start = 3
+end = 5
+dummy = data[start:end + 1]
+dummy.reverse()
+#바꾼 값으로 수정
+data[start:end + 1] = dummy
+print(data)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,9 +756,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -741,9 +765,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,6 +831,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,6 +864,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,17 +882,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2388,7 +2421,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
@@ -2420,34 +2453,34 @@
       <c r="S1" s="40"/>
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" s="1" t="s">
@@ -2473,18 +2506,20 @@
       <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
+      <c r="K5" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="2">
@@ -2505,55 +2540,59 @@
       <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="36">
+        <v>0</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="38"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
+      <c r="G8" s="36">
+        <v>5</v>
+      </c>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="3">
@@ -2574,18 +2613,18 @@
       <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="5">
@@ -2606,18 +2645,18 @@
       <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22" s="7" customFormat="1">
       <c r="B11" s="8"/>
@@ -2638,10 +2677,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="38"/>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="36">
+        <v>4</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:22">
@@ -2688,8 +2731,12 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="36">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="3">
@@ -2751,9 +2798,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A1:S1"/>
+    <mergeCell ref="K5:S10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2770,7 +2818,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:L4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
@@ -2826,12 +2874,14 @@
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="J4" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
@@ -2852,40 +2902,40 @@
       <c r="F5" s="2">
         <v>6</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="21" thickBot="1">
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:15" ht="21" thickBot="1">
       <c r="A9" s="45" t="s">
@@ -2896,12 +2946,12 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="21" thickBot="1">
       <c r="F10" s="3">
@@ -2939,9 +2989,15 @@
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
@@ -2962,12 +3018,12 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="1" t="s">
@@ -2997,9 +3053,15 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" s="1" t="s">
@@ -3044,12 +3106,24 @@
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="27">
       <c r="A26" s="44" t="s">
@@ -3063,7 +3137,7 @@
       <c r="G26" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A26:G26"/>
@@ -3071,6 +3145,7 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="J4:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3087,7 +3162,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:O15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
@@ -3118,14 +3193,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="3">
@@ -3137,145 +3212,163 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
     </row>
     <row r="8" spans="1:15" ht="50.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
+      <c r="B8" s="21">
+        <v>1</v>
+      </c>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="50.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="21">
+        <v>1</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="21">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
+      <c r="H9" s="21">
+        <v>12</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" spans="1:15" ht="50.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="21">
+        <v>12</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="21">
+        <v>10</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="21">
+        <v>3</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
+      <c r="H10" s="21">
+        <v>123</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3295,7 +3388,7 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:P16"/>
     </sheetView>
   </sheetViews>
@@ -3322,10 +3415,10 @@
       <c r="M1" s="40"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
-      <c r="P1" s="18"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3345,65 +3438,65 @@
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="24">
+      <c r="A8" s="22">
         <v>123</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="24">
-        <v>0</v>
-      </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
@@ -3413,37 +3506,37 @@
       <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
     </row>
     <row r="10" spans="1:16">
       <c r="F10" s="10"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <v>12</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>1</v>
       </c>
       <c r="F11" s="10"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
@@ -3453,35 +3546,35 @@
       <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="24">
+      <c r="A14" s="22">
         <v>1</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
@@ -3491,27 +3584,27 @@
       <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <v>0</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>3</v>
       </c>
     </row>
@@ -3546,9 +3639,9 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="1" t="s">
@@ -3559,10 +3652,10 @@
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <v>123</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="37" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3581,9 +3674,9 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3602,19 +3695,19 @@
       <c r="C33" s="3">
         <v>2</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="22">
         <v>12</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -3636,21 +3729,21 @@
       <c r="C37" s="3">
         <v>2</v>
       </c>
-      <c r="E37" s="24">
-        <v>1</v>
-      </c>
-      <c r="F37" s="53" t="s">
+      <c r="E37" s="22">
+        <v>1</v>
+      </c>
+      <c r="F37" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3676,8 +3769,8 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
@@ -3697,35 +3790,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="21" thickBot="1"/>
     <row r="3" spans="1:15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="I3" s="1" t="s">
         <v>42</v>
       </c>
@@ -3737,10 +3830,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="21" thickBot="1">
-      <c r="A4" s="26">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="24">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15">
         <v>0</v>
       </c>
       <c r="C4" s="2">
@@ -3749,28 +3842,28 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-      <c r="G4" s="28">
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
         <v>2</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="27">
         <v>15</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="26">
         <v>2</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <v>30</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="27">
         <v>60</v>
       </c>
       <c r="O4" s="1">
@@ -3778,10 +3871,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="A5" s="26">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
         <v>0</v>
       </c>
       <c r="C5" s="2">
@@ -3790,31 +3883,31 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="27">
-        <v>1</v>
-      </c>
-      <c r="G5" s="28">
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26">
         <v>2</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="27">
         <v>7</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="28">
         <v>2</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <v>15</v>
       </c>
       <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="28">
         <v>2</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="27">
         <v>30</v>
       </c>
       <c r="O5" s="4">
@@ -3822,10 +3915,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>0</v>
       </c>
       <c r="C6" s="2">
@@ -3834,31 +3927,31 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="G6" s="28">
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
         <v>2</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="27">
         <v>3</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="28">
         <v>2</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <v>7</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="28">
         <v>2</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="27">
         <v>15</v>
       </c>
       <c r="O6" s="4">
@@ -3866,10 +3959,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>0</v>
       </c>
       <c r="C7" s="2">
@@ -3878,26 +3971,26 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>1</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="30">
+      <c r="J7" s="28">
         <v>2</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <v>3</v>
       </c>
       <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="28">
         <v>2</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="27">
         <v>7</v>
       </c>
       <c r="O7" s="4">
@@ -3905,10 +3998,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="22" thickTop="1" thickBot="1">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>0</v>
       </c>
       <c r="C8" s="2">
@@ -3917,7 +4010,7 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>0</v>
       </c>
       <c r="H8" s="4"/>
@@ -3927,10 +4020,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="30">
+      <c r="M8" s="28">
         <v>2</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="29">
         <v>3</v>
       </c>
       <c r="O8" s="4">
@@ -3938,10 +4031,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" thickTop="1">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>0</v>
       </c>
       <c r="C9" s="2">
@@ -3950,7 +4043,7 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>1</v>
       </c>
       <c r="G9" s="4"/>
@@ -3966,10 +4059,10 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>0</v>
       </c>
       <c r="C10" s="2">
@@ -3978,20 +4071,24 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>1111</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="K10" s="13">
+        <v>11110</v>
+      </c>
+      <c r="N10" s="13">
+        <v>111110</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>0</v>
       </c>
       <c r="C11" s="2">
@@ -4000,15 +4097,15 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>8</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
       <c r="C12" s="2">
@@ -4017,15 +4114,15 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>9</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>1</v>
       </c>
       <c r="C13" s="2">
@@ -4034,15 +4131,15 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="26">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>1</v>
       </c>
       <c r="C14" s="2">
@@ -4051,15 +4148,15 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="26">
+      <c r="A15" s="24">
         <v>11</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>1</v>
       </c>
       <c r="C15" s="2">
@@ -4068,15 +4165,15 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="26">
+      <c r="A16" s="24">
         <v>12</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>1</v>
       </c>
       <c r="C16" s="2">
@@ -4085,16 +4182,16 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <v>0</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26">
+      <c r="A17" s="24">
         <v>13</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>1</v>
       </c>
       <c r="C17" s="2">
@@ -4103,16 +4200,16 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>1</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>14</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>1</v>
       </c>
       <c r="C18" s="2">
@@ -4121,24 +4218,24 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>15</v>
       </c>
-      <c r="B19" s="33">
-        <v>1</v>
-      </c>
-      <c r="C19" s="34">
-        <v>1</v>
-      </c>
-      <c r="D19" s="34">
-        <v>1</v>
-      </c>
-      <c r="E19" s="35">
+      <c r="B19" s="31">
+        <v>1</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4215,7 +4312,7 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -4246,7 +4343,7 @@
       <c r="P1" s="40"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4337,7 +4434,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>47</v>
       </c>
       <c r="P8" s="11"/>
@@ -4351,7 +4448,7 @@
       <c r="X8" s="11"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="P9" s="11"/>
@@ -4391,19 +4488,19 @@
       <c r="J11" s="5">
         <v>6</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="34">
         <v>7</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="34">
         <v>8</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="34">
         <v>9</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="34">
         <v>10</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="34">
         <v>11</v>
       </c>
       <c r="P11" s="11"/>
@@ -4549,7 +4646,7 @@
       <c r="X17" s="11"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>51</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -4594,28 +4691,28 @@
       <c r="G21" s="5">
         <v>3</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="34">
         <v>4</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="34">
         <v>5</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="34">
         <v>6</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="34">
         <v>7</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="34">
         <v>8</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="34">
         <v>9</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="34">
         <v>10</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="34">
         <v>11</v>
       </c>
       <c r="P21" s="11"/>
@@ -4725,7 +4822,7 @@
       <c r="X27" s="11"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>52</v>
       </c>
       <c r="P28" s="11"/>
@@ -4739,10 +4836,10 @@
       <c r="X28" s="11"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="F29" s="37">
+      <c r="F29" s="35">
         <v>2</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="35">
         <v>3</v>
       </c>
       <c r="H29" s="4">

--- a/01/2. 기본 자료구조와 배열.xlsx
+++ b/01/2. 기본 자료구조와 배열.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minseo/data_structure/01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9554DB65-246E-D543-9F21-DF58044539CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876F1074-7DBF-6742-A0B0-1A1518F06BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="역순 만들기" sheetId="1" r:id="rId1"/>
@@ -3769,7 +3769,7 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -4312,7 +4312,7 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
